--- a/documents/diagrammes/gantt_thibaut.xlsx
+++ b/documents/diagrammes/gantt_thibaut.xlsx
@@ -1421,8 +1421,8 @@
   </sheetPr>
   <dimension ref="B1:IF41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="CA31" sqref="CA31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3356,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" s="17">
         <v>2</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" s="17">
         <v>1</v>
@@ -4112,7 +4112,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="17">
         <v>3</v>
@@ -4365,7 +4365,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" s="17">
         <v>2</v>
@@ -4618,7 +4618,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="17">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F14" s="17">
         <v>3</v>
@@ -4871,7 +4871,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="17">
         <v>3</v>
@@ -5124,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F16" s="17">
         <v>1</v>
@@ -5377,7 +5377,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" s="17">
         <v>4</v>
@@ -5630,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" s="17">
         <v>3</v>
@@ -5883,10 +5883,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="17">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F19" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -6136,7 +6136,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="17">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" s="17">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="17">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" s="17">
         <v>5</v>
@@ -6642,7 +6642,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="17">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="17">
         <v>3</v>
@@ -6895,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="17">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" s="17">
         <v>2</v>
@@ -7148,7 +7148,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="17">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" s="17">
         <v>12</v>
@@ -7401,7 +7401,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="17">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F25" s="17">
         <v>5</v>
@@ -7654,7 +7654,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="17">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F26" s="17">
         <v>2</v>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="17">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F27" s="17">
         <v>1</v>
@@ -8160,7 +8160,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="17">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F28" s="17">
         <v>2</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="17">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F29" s="17">
         <v>1</v>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="17">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F30" s="17">
         <v>2</v>
@@ -8919,7 +8919,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="17">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F31" s="17">
         <v>2</v>
@@ -9172,7 +9172,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="17">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F32" s="17">
         <v>7</v>
@@ -9425,7 +9425,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="17">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F33" s="17">
         <v>9</v>
@@ -9678,7 +9678,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="17">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F34" s="17">
         <v>4</v>
@@ -9931,7 +9931,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="17">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F35" s="17">
         <v>4</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="17">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F36" s="17">
         <v>2</v>
